--- a/ClickTab.Web/Resources/Roles.xlsx
+++ b/ClickTab.Web/Resources/Roles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\ClickTab.Workspace\ClickTab.Web\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5509ED-B961-40E5-8084-40E30610D884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3851BE7-8975-4D26-9E1A-9808B74750D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE61DC9B-393B-4308-A6EE-67DD2EF94D92}"/>
+    <workbookView xWindow="29970" yWindow="1590" windowWidth="21600" windowHeight="11295" xr2:uid="{DE61DC9B-393B-4308-A6EE-67DD2EF94D92}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ID</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>COLLABORATORE</t>
+  </si>
+  <si>
+    <t>USI FUTURI</t>
   </si>
 </sst>
 </file>
@@ -422,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A109166-4BCB-4F2C-9C40-67230E3EADDC}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,6 +469,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
